--- a/src/main/resources/爬虫&Spark作业执行.xlsx
+++ b/src/main/resources/爬虫&Spark作业执行.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="7320" tabRatio="506"/>
+    <workbookView windowWidth="28695" windowHeight="13215" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="爬虫执行汇总" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="197">
   <si>
     <t>爬虫执行汇总表</t>
   </si>
@@ -206,9 +206,6 @@
     <t>京东</t>
   </si>
   <si>
-    <t>spark3</t>
-  </si>
-  <si>
     <t>每月14日</t>
   </si>
   <si>
@@ -293,6 +290,9 @@
   </si>
   <si>
     <t>内容爬取</t>
+  </si>
+  <si>
+    <t>spark3</t>
   </si>
   <si>
     <t>每天</t>
@@ -356,6 +356,9 @@
           }
         }
 }</t>
+  </si>
+  <si>
+    <t>每周六</t>
   </si>
   <si>
     <t>/home/hadoop/crawler/variety</t>
@@ -578,6 +581,18 @@
     <t>根据名称爬取出品公司</t>
   </si>
   <si>
+    <t>采集数据统计</t>
+  </si>
+  <si>
+    <t>采集数据</t>
+  </si>
+  <si>
+    <t>es存储数据统计</t>
+  </si>
+  <si>
+    <t>tb_status</t>
+  </si>
+  <si>
     <t>Spark作业计划</t>
   </si>
   <si>
@@ -1001,10 +1016,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1049,17 +1064,98 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1074,20 +1170,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1096,37 +1178,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1140,52 +1200,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1220,7 +1235,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,85 +1397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1322,90 +1415,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1519,102 +1534,6 @@
         <color auto="1"/>
       </diagonal>
     </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
     <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
@@ -1633,20 +1552,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1666,17 +1574,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1696,20 +1618,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1718,152 +1637,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1894,48 +1813,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1957,6 +1876,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1966,17 +1894,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1996,84 +1915,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2089,7 +1990,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="2E3436"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -2371,31 +2272,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14:J17"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.09090909090909" customWidth="1"/>
-    <col min="2" max="2" width="9.36363636363636" style="24" customWidth="1"/>
-    <col min="3" max="3" width="4.72727272727273" style="24" customWidth="1"/>
-    <col min="4" max="4" width="8.36363636363636" customWidth="1"/>
-    <col min="5" max="5" width="7.27272727272727" customWidth="1"/>
-    <col min="6" max="6" width="7.72727272727273" customWidth="1"/>
-    <col min="7" max="7" width="8.76363636363636" customWidth="1"/>
-    <col min="8" max="8" width="12.7272727272727" customWidth="1"/>
-    <col min="9" max="9" width="17.5454545454545" customWidth="1"/>
-    <col min="10" max="10" width="24.9181818181818" customWidth="1"/>
-    <col min="11" max="11" width="9.51818181818182" customWidth="1"/>
-    <col min="12" max="12" width="7.45454545454545" customWidth="1"/>
-    <col min="13" max="13" width="6.63636363636364" customWidth="1"/>
-    <col min="14" max="14" width="21.4545454545455" customWidth="1"/>
-    <col min="15" max="15" width="60.5181818181818" customWidth="1"/>
+    <col min="1" max="1" width="5.09166666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.36666666666667" style="24" customWidth="1"/>
+    <col min="3" max="3" width="4.725" style="24" customWidth="1"/>
+    <col min="4" max="4" width="8.36666666666667" customWidth="1"/>
+    <col min="5" max="5" width="7.275" customWidth="1"/>
+    <col min="6" max="6" width="7.725" customWidth="1"/>
+    <col min="7" max="7" width="8.76666666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.725" customWidth="1"/>
+    <col min="9" max="9" width="17.5416666666667" customWidth="1"/>
+    <col min="10" max="10" width="24.9166666666667" customWidth="1"/>
+    <col min="11" max="11" width="9.51666666666667" customWidth="1"/>
+    <col min="12" max="12" width="7.45833333333333" customWidth="1"/>
+    <col min="13" max="13" width="6.63333333333333" customWidth="1"/>
+    <col min="14" max="14" width="21.4583333333333" customWidth="1"/>
+    <col min="15" max="15" width="60.5166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1" spans="1:15">
@@ -2474,19 +2375,19 @@
       <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="34">
         <v>0.427083333333333</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="38"/>
@@ -2502,7 +2403,7 @@
       <c r="M3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="19" t="s">
         <v>26</v>
       </c>
       <c r="O3" s="2" t="s">
@@ -2515,19 +2416,19 @@
       <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="34">
         <v>0.427083333333333</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="38"/>
@@ -2541,7 +2442,7 @@
       <c r="M4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="19" t="s">
         <v>33</v>
       </c>
       <c r="O4" s="2" t="s">
@@ -2554,19 +2455,19 @@
       <c r="C5" s="8">
         <v>3</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="34">
         <v>0.427083333333333</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="38"/>
@@ -2578,7 +2479,7 @@
       <c r="M5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="19" t="s">
         <v>37</v>
       </c>
       <c r="O5" s="2"/>
@@ -2591,24 +2492,24 @@
       <c r="C6" s="8">
         <v>4</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="34">
+        <v>0.427083333333333</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="31">
-        <v>0.427083333333333</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="I6" s="38"/>
       <c r="J6" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6" s="42"/>
       <c r="L6" s="8" t="s">
@@ -2617,39 +2518,39 @@
       <c r="M6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" ht="44" customHeight="1" spans="1:15">
       <c r="A7" s="30"/>
       <c r="B7" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="8">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="34">
+        <v>0.59375</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="31">
-        <v>0.59375</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="I7" s="38"/>
       <c r="J7" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="42"/>
       <c r="L7" s="8" t="s">
@@ -2658,16 +2559,16 @@
       <c r="M7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" ht="40" customHeight="1" spans="1:15">
       <c r="A8" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>17</v>
@@ -2679,19 +2580,19 @@
         <v>18</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0.0416666666666667</v>
+        <v>52</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.00694444444444444</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="10" t="s">
+      <c r="H8" s="35"/>
+      <c r="I8" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="21" t="s">
         <v>55</v>
       </c>
       <c r="K8" s="42"/>
@@ -2701,7 +2602,7 @@
       <c r="M8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="19" t="s">
         <v>56</v>
       </c>
       <c r="O8" s="2" t="s">
@@ -2718,19 +2619,19 @@
         <v>18</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0.00694444444444444</v>
+        <v>52</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0.000694444444444444</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="21"/>
       <c r="K9" s="42"/>
       <c r="L9" s="8" t="s">
         <v>31</v>
@@ -2738,8 +2639,8 @@
       <c r="M9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="22" t="s">
-        <v>59</v>
+      <c r="N9" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="O9" s="2"/>
     </row>
@@ -2753,19 +2654,19 @@
         <v>18</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0.0416666666666667</v>
+        <v>52</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.0833333333333333</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="10"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="21"/>
       <c r="K10" s="42"/>
       <c r="L10" s="8" t="s">
         <v>31</v>
@@ -2773,8 +2674,8 @@
       <c r="M10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="22" t="s">
-        <v>61</v>
+      <c r="N10" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -2792,18 +2693,18 @@
       <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="22">
         <v>0.00694444444444444</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="10" t="s">
+      <c r="H11" s="36"/>
+      <c r="I11" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>62</v>
+      <c r="J11" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="K11" s="42"/>
       <c r="L11" s="8" t="s">
@@ -2812,39 +2713,39 @@
       <c r="M11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="22" t="s">
-        <v>63</v>
+      <c r="N11" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:15">
       <c r="A12" s="30"/>
       <c r="B12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="8">
         <v>5</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="11">
+        <v>28</v>
+      </c>
+      <c r="F12" s="22">
         <v>0.229166666666667</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="10" t="s">
+      <c r="H12" s="36"/>
+      <c r="I12" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>65</v>
+      <c r="J12" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="K12" s="42"/>
       <c r="L12" s="8" t="s">
@@ -2853,189 +2754,221 @@
       <c r="M12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="22" t="s">
-        <v>66</v>
+      <c r="N12" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:15">
       <c r="A13" s="30"/>
-      <c r="B13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="B13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="15">
         <v>6</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="8" t="s">
+      <c r="D13" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="10" t="s">
+      <c r="E13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="15" t="s">
         <v>71</v>
       </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="K13" s="42"/>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="22" t="s">
-        <v>72</v>
+      <c r="M13" s="15"/>
+      <c r="N13" s="45" t="s">
+        <v>73</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" ht="40" customHeight="1" spans="1:15">
-      <c r="A14" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="31" t="s">
         <v>75</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C14" s="8">
         <v>1</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>76</v>
+      <c r="D14" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="22">
         <v>0.5</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="17" t="s">
+      <c r="G14" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="42"/>
+      <c r="H14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="44"/>
       <c r="L14" s="8" t="s">
         <v>31</v>
       </c>
       <c r="M14" s="8">
         <v>200</v>
       </c>
-      <c r="N14" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="O14" s="47"/>
+      <c r="N14" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" s="46"/>
     </row>
     <row r="15" ht="40" customHeight="1" spans="1:15">
-      <c r="A15" s="36"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="8">
         <v>2</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>80</v>
+      <c r="D15" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="22">
         <v>0.583333333333333</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="42"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="44"/>
       <c r="L15" s="8" t="s">
         <v>31</v>
       </c>
       <c r="M15" s="8">
         <v>201</v>
       </c>
-      <c r="N15" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="O15" s="47"/>
+      <c r="N15" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="46"/>
     </row>
     <row r="16" ht="40" customHeight="1" spans="1:15">
-      <c r="A16" s="36"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="8">
         <v>3</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>82</v>
+      <c r="D16" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="22">
         <v>0.666666666666667</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="42"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="44"/>
       <c r="L16" s="8" t="s">
         <v>31</v>
       </c>
       <c r="M16" s="8">
         <v>202</v>
       </c>
-      <c r="N16" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="O16" s="47"/>
+      <c r="N16" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" s="46"/>
     </row>
     <row r="17" ht="40" customHeight="1" spans="1:15">
-      <c r="A17" s="37"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C17" s="8">
         <v>4</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="11">
+        <v>28</v>
+      </c>
+      <c r="F17" s="22">
         <v>0.715277777777778</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>77</v>
+      <c r="G17" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="8"/>
       <c r="M17" s="8">
         <v>500</v>
       </c>
-      <c r="N17" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="O17" s="47"/>
+      <c r="N17" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17" s="46"/>
+    </row>
+    <row r="18" ht="115" customHeight="1" spans="1:15">
+      <c r="A18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="22">
+        <v>0.627083333333333</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="A1:O1"/>
+    <mergeCell ref="I18:J18"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A17"/>
@@ -3049,10 +2982,10 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J8:J10"/>
     <mergeCell ref="K3:K13"/>
-    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="K14:K18"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="O8:O10"/>
-    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="O14:O18"/>
     <mergeCell ref="I14:J17"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3072,23 +3005,23 @@
       <selection pane="bottomLeft" activeCell="I2" sqref="I2:I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="5.45454545454545" customWidth="1"/>
-    <col min="3" max="3" width="22.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="12.4545454545455" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.5454545454545" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.3636363636364" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.09090909090909" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.36363636363636" customWidth="1"/>
+    <col min="1" max="1" width="11.0916666666667" customWidth="1"/>
+    <col min="2" max="2" width="5.45833333333333" customWidth="1"/>
+    <col min="3" max="3" width="22.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="12.4583333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.5416666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.3666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.09166666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.36666666666667" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="19.2727272727273" customWidth="1"/>
+    <col min="10" max="10" width="19.275" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3108,57 +3041,57 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="11">
+        <v>104</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="22">
         <v>0.365972222222222</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J3" s="8"/>
     </row>
@@ -3168,16 +3101,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="10"/>
+        <v>109</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="21"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="12"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10">
@@ -3186,16 +3119,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="10"/>
+        <v>111</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="21"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="12"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10">
@@ -3204,16 +3137,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="10"/>
+        <v>113</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="21"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10">
@@ -3222,16 +3155,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="10"/>
+        <v>115</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="21"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="12"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10">
@@ -3240,16 +3173,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="21"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="12"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10">
@@ -3258,16 +3191,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="21"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="12"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10">
@@ -3276,42 +3209,42 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="10"/>
+        <v>121</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="21"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="12"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="C11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="22">
         <v>0.260416666666667</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I11" s="12"/>
+        <v>126</v>
+      </c>
+      <c r="I11" s="10"/>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10">
@@ -3319,17 +3252,17 @@
       <c r="B12" s="8">
         <v>2</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="10"/>
+      <c r="C12" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="21"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="12"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10">
@@ -3337,17 +3270,17 @@
       <c r="B13" s="8">
         <v>3</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="10"/>
+      <c r="C13" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="21"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="12"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10">
@@ -3355,43 +3288,43 @@
       <c r="B14" s="8">
         <v>4</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="10"/>
+      <c r="C14" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="21"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="12"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B15" s="8">
         <v>1</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="C15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="22">
         <v>0.3125</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I15" s="12"/>
+        <v>126</v>
+      </c>
+      <c r="I15" s="10"/>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10">
@@ -3399,17 +3332,17 @@
       <c r="B16" s="8">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="10"/>
+      <c r="C16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="21"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="12"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10">
@@ -3417,17 +3350,17 @@
       <c r="B17" s="8">
         <v>3</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="10"/>
+      <c r="C17" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="21"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="12"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10">
@@ -3435,17 +3368,17 @@
       <c r="B18" s="8">
         <v>4</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" s="10"/>
+      <c r="C18" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="21"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="12"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10">
@@ -3453,17 +3386,17 @@
       <c r="B19" s="8">
         <v>5</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="10"/>
+      <c r="C19" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="21"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="12"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10">
@@ -3471,17 +3404,17 @@
       <c r="B20" s="8">
         <v>6</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="10"/>
+      <c r="C20" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="21"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="12"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10">
@@ -3489,17 +3422,17 @@
       <c r="B21" s="8">
         <v>7</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="10"/>
+      <c r="C21" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="21"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="15"/>
+      <c r="I21" s="13"/>
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10">
@@ -3509,26 +3442,26 @@
       <c r="B22" s="8">
         <v>1</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>139</v>
+      <c r="C22" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="11">
+        <v>145</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="22">
         <v>0.25</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="J22" s="8"/>
     </row>
@@ -3537,35 +3470,35 @@
       <c r="B23" s="8">
         <v>2</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F23" s="10"/>
+      <c r="C23" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="21"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="12"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" ht="28" spans="1:10">
+    <row r="24" ht="28.5" spans="1:10">
       <c r="A24" s="8"/>
       <c r="B24" s="8">
         <v>3</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" s="10"/>
+      <c r="C24" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="21"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="12"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10">
@@ -3573,17 +3506,17 @@
       <c r="B25" s="8">
         <v>4</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="10" t="s">
+      <c r="C25" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="10"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="12"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10">
@@ -3591,195 +3524,195 @@
       <c r="B26" s="8">
         <v>5</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="10" t="s">
+      <c r="C26" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="12"/>
+      <c r="I26" s="10"/>
       <c r="J26" s="8"/>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:10">
-      <c r="A27" s="17" t="s">
-        <v>46</v>
+      <c r="A27" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="B27" s="8">
         <v>1</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="10" t="s">
-        <v>151</v>
+      <c r="C27" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G27" s="18">
+        <v>157</v>
+      </c>
+      <c r="G27" s="23">
         <v>0.180555555555556</v>
       </c>
-      <c r="H27" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" s="12"/>
+      <c r="H27" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="I27" s="10"/>
       <c r="J27" s="8"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:10">
-      <c r="A28" s="19"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="8">
         <v>2</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="12"/>
+      <c r="C28" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="10"/>
       <c r="J28" s="8"/>
     </row>
     <row r="29" ht="17" customHeight="1" spans="1:10">
-      <c r="A29" s="19"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="8">
         <v>3</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="12"/>
+      <c r="C29" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="10"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" ht="28" spans="1:10">
-      <c r="A30" s="19"/>
+    <row r="30" ht="27.75" spans="1:10">
+      <c r="A30" s="16"/>
       <c r="B30" s="8">
         <v>4</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="12"/>
+      <c r="C30" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="10"/>
       <c r="J30" s="8"/>
     </row>
     <row r="31" ht="37" customHeight="1" spans="1:10">
-      <c r="A31" s="19"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="8">
         <v>5</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="12"/>
+      <c r="C31" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="10"/>
       <c r="J31" s="8"/>
     </row>
     <row r="32" ht="35" customHeight="1" spans="1:10">
-      <c r="A32" s="19"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="8">
         <v>6</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="12"/>
+      <c r="C32" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="10"/>
       <c r="J32" s="8"/>
     </row>
     <row r="33" ht="33" customHeight="1" spans="1:10">
-      <c r="A33" s="19"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="8">
         <v>7</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="12"/>
+      <c r="C33" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="10"/>
       <c r="J33" s="8"/>
     </row>
     <row r="34" ht="33" customHeight="1" spans="1:10">
-      <c r="A34" s="20"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="8">
         <v>8</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="12"/>
+      <c r="C34" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="10"/>
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" s="8">
         <v>1</v>
       </c>
-      <c r="C35" s="21" t="s">
-        <v>167</v>
+      <c r="C35" s="18" t="s">
+        <v>172</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G35" s="11">
+        <v>104</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" s="22">
         <v>0.222222222222222</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I35" s="9" t="str">
         <f>I3</f>
@@ -3810,154 +3743,154 @@
       <c r="B36" s="8">
         <v>2</v>
       </c>
-      <c r="C36" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F36" s="10"/>
+      <c r="C36" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" s="21"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="22"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="19"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="8"/>
       <c r="B37" s="8">
         <v>3</v>
       </c>
-      <c r="C37" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="F37" s="10"/>
+      <c r="C37" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" s="21"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="22"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="19"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="8"/>
       <c r="B38" s="8">
         <v>4</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="F38" s="10"/>
+      <c r="C38" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F38" s="21"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="22"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="8"/>
       <c r="B39" s="8">
         <v>5</v>
       </c>
-      <c r="C39" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F39" s="10"/>
+      <c r="C39" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F39" s="21"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="22"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="19"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="8"/>
       <c r="B40" s="8">
         <v>6</v>
       </c>
-      <c r="C40" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F40" s="10"/>
+      <c r="C40" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" s="21"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="22"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="19"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="8"/>
       <c r="B41" s="8">
         <v>7</v>
       </c>
-      <c r="C41" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="F41" s="10"/>
+      <c r="C41" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" s="21"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="22"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="19"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="8"/>
       <c r="B42" s="8">
         <v>8</v>
       </c>
-      <c r="C42" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F42" s="10"/>
+      <c r="C42" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F42" s="21"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="22"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="19"/>
     </row>
     <row r="43" ht="49" customHeight="1" spans="1:10">
-      <c r="A43" s="22" t="s">
-        <v>184</v>
+      <c r="A43" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E43" s="10" t="s">
+      <c r="C43" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="G43" s="23"/>
-      <c r="H43" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="I43" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="J43" s="22"/>
+      <c r="F43" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G43" s="20"/>
+      <c r="H43" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J43" s="19"/>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" s="2"/>
@@ -4023,10 +3956,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="47.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="41.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="47.4583333333333" customWidth="1"/>
+    <col min="3" max="3" width="41.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4034,7 +3967,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -4045,10 +3978,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/爬虫&Spark作业执行.xlsx
+++ b/src/main/resources/爬虫&Spark作业执行.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13215" tabRatio="506"/>
+    <workbookView windowWidth="19095" windowHeight="7785" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="爬虫执行汇总" sheetId="2" r:id="rId1"/>
@@ -1016,10 +1016,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1064,6 +1064,105 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1073,6 +1172,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1088,121 +1202,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1241,31 +1241,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,13 +1265,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,13 +1301,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,55 +1373,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,7 +1385,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1397,25 +1415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1535,6 +1535,15 @@
       </diagonal>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1574,20 +1583,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1599,6 +1605,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1617,168 +1632,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2275,9 +2275,9 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="$A9:$XFD9"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2691,10 +2691,10 @@
         <v>39</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F11" s="22">
-        <v>0.00694444444444444</v>
+        <v>0.75</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>53</v>
@@ -2732,10 +2732,10 @@
         <v>46</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F12" s="22">
-        <v>0.229166666666667</v>
+        <v>0.875</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>53</v>

--- a/src/main/resources/爬虫&Spark作业执行.xlsx
+++ b/src/main/resources/爬虫&Spark作业执行.xlsx
@@ -206,6 +206,9 @@
     <t>京东</t>
   </si>
   <si>
+    <t>spark3</t>
+  </si>
+  <si>
     <t>每月14日</t>
   </si>
   <si>
@@ -290,9 +293,6 @@
   </si>
   <si>
     <t>内容爬取</t>
-  </si>
-  <si>
-    <t>spark3</t>
   </si>
   <si>
     <t>每天</t>
@@ -1016,10 +1016,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1064,11 +1064,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1081,21 +1088,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1111,82 +1103,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,6 +1120,89 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1241,19 +1241,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,19 +1277,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,13 +1307,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,49 +1385,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,49 +1415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1538,23 +1538,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1563,7 +1548,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1583,6 +1568,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1594,26 +1588,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1632,153 +1606,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2275,9 +2275,9 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2496,20 +2496,20 @@
         <v>39</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F6" s="34">
-        <v>0.427083333333333</v>
+        <v>0.760416666666667</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6" s="38"/>
       <c r="J6" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6" s="42"/>
       <c r="L6" s="8" t="s">
@@ -2519,22 +2519,22 @@
         <v>31</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" ht="44" customHeight="1" spans="1:15">
       <c r="A7" s="30"/>
       <c r="B7" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="8">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>35</v>
@@ -2543,14 +2543,14 @@
         <v>0.59375</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" s="38"/>
       <c r="J7" s="39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7" s="42"/>
       <c r="L7" s="8" t="s">
@@ -2560,15 +2560,15 @@
         <v>31</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" ht="40" customHeight="1" spans="1:15">
       <c r="A8" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>17</v>
@@ -2580,7 +2580,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F8" s="22">
         <v>0.00694444444444444</v>
@@ -2619,7 +2619,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F9" s="22">
         <v>0.000694444444444444</v>
@@ -2654,7 +2654,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F10" s="22">
         <v>0.0833333333333333</v>
@@ -2691,7 +2691,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F11" s="22">
         <v>0.75</v>
@@ -2723,16 +2723,16 @@
     <row r="12" ht="40" customHeight="1" spans="1:15">
       <c r="A12" s="30"/>
       <c r="B12" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="8">
         <v>5</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F12" s="22">
         <v>0.875</v>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:10">
       <c r="A27" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="8">
         <v>1</v>

--- a/src/main/resources/爬虫&Spark作业执行.xlsx
+++ b/src/main/resources/爬虫&Spark作业执行.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7785" tabRatio="506"/>
+    <workbookView windowWidth="14295" windowHeight="12795" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="爬虫执行汇总" sheetId="2" r:id="rId1"/>
@@ -358,7 +358,7 @@
 }</t>
   </si>
   <si>
-    <t>每周六</t>
+    <t>每周五</t>
   </si>
   <si>
     <t>/home/hadoop/crawler/variety</t>
@@ -1017,9 +1017,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1071,14 +1071,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1086,8 +1078,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1102,39 +1124,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1157,8 +1171,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1171,9 +1194,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,28 +1203,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1235,7 +1235,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,25 +1385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,43 +1397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,97 +1409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1544,11 +1544,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1572,22 +1587,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1637,145 +1637,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2277,7 +2277,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2583,7 +2583,7 @@
         <v>40</v>
       </c>
       <c r="F8" s="22">
-        <v>0.00694444444444444</v>
+        <v>0.9375</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>53</v>
@@ -2622,7 +2622,7 @@
         <v>40</v>
       </c>
       <c r="F9" s="22">
-        <v>0.000694444444444444</v>
+        <v>0.75</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>58</v>
@@ -2657,7 +2657,7 @@
         <v>40</v>
       </c>
       <c r="F10" s="22">
-        <v>0.0833333333333333</v>
+        <v>0.0347222222222222</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>53</v>

--- a/src/main/resources/爬虫&Spark作业执行.xlsx
+++ b/src/main/resources/爬虫&Spark作业执行.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HXQH\CompanyProjectGitLab\bigdata-platform\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730" tabRatio="506" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19100" windowHeight="7730" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="爬虫执行汇总" sheetId="2" r:id="rId1"/>
     <sheet name="Spark作业计划" sheetId="1" r:id="rId2"/>
     <sheet name="系统对接" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="202">
   <si>
     <t>爬虫执行汇总表</t>
   </si>
@@ -977,14 +982,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1051,142 +1050,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1197,8 +1060,15 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1211,194 +1081,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="26">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1615,272 +1299,30 @@
         <color auto="1"/>
       </diagonal>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1888,209 +1330,184 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2377,665 +1794,664 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8:J10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.12727272727273" customWidth="1"/>
-    <col min="2" max="2" width="9.37272727272727" style="31" customWidth="1"/>
-    <col min="3" max="3" width="4.75454545454545" style="31" customWidth="1"/>
-    <col min="4" max="4" width="8.37272727272727" customWidth="1"/>
-    <col min="5" max="5" width="7.25454545454545" customWidth="1"/>
-    <col min="6" max="6" width="7.75454545454545" customWidth="1"/>
-    <col min="7" max="7" width="8.75454545454545" customWidth="1"/>
-    <col min="8" max="8" width="12.7545454545455" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="24.8727272727273" customWidth="1"/>
-    <col min="11" max="11" width="9.5" customWidth="1"/>
-    <col min="12" max="12" width="7.5" customWidth="1"/>
-    <col min="13" max="13" width="6.62727272727273" customWidth="1"/>
-    <col min="14" max="14" width="21.5" customWidth="1"/>
-    <col min="15" max="15" width="60.5" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="8.36328125" customWidth="1"/>
+    <col min="5" max="5" width="7.26953125" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" customWidth="1"/>
+    <col min="10" max="10" width="24.90625" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" customWidth="1"/>
+    <col min="13" max="13" width="6.6328125" customWidth="1"/>
+    <col min="14" max="14" width="21.453125" customWidth="1"/>
+    <col min="15" max="15" width="60.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.1" customHeight="1" spans="1:15">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:15" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-    </row>
-    <row r="2" s="8" customFormat="1" ht="48.95" customHeight="1" spans="1:15">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+    </row>
+    <row r="2" spans="1:15" s="7" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="39.95" customHeight="1" spans="1:15">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="38">
-        <v>0.427083333333333</v>
-      </c>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="24">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" ht="39.95" customHeight="1" spans="1:15">
-      <c r="A4" s="37"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5">
+    <row r="4" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="4">
         <v>2</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="38">
-        <v>0.427083333333333</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="24">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="48" t="s">
+      <c r="I4" s="41"/>
+      <c r="J4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="5" t="s">
+      <c r="K4" s="46"/>
+      <c r="L4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" ht="39.95" customHeight="1" spans="1:15">
-      <c r="A5" s="37"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5">
+    <row r="5" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="38">
-        <v>0.427083333333333</v>
-      </c>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="24">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="5" t="s">
+      <c r="I5" s="41"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="9"/>
-    </row>
-    <row r="6" ht="39.95" customHeight="1" spans="1:15">
-      <c r="A6" s="37"/>
-      <c r="B6" s="5" t="s">
+      <c r="O5" s="48"/>
+    </row>
+    <row r="6" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="38">
-        <v>0.427083333333333</v>
-      </c>
-      <c r="G6" s="21" t="s">
+      <c r="F6" s="24">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="46" t="s">
+      <c r="I6" s="41"/>
+      <c r="J6" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="5" t="s">
+      <c r="K6" s="46"/>
+      <c r="L6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" ht="44.1" customHeight="1" spans="1:15">
-      <c r="A7" s="37"/>
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:15" ht="44.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="24">
         <v>0.59375</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="46" t="s">
+      <c r="I7" s="41"/>
+      <c r="J7" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="49"/>
-      <c r="L7" s="5" t="s">
+      <c r="K7" s="46"/>
+      <c r="L7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="30" t="s">
+      <c r="N7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" ht="39.95" customHeight="1" spans="1:15">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="16">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="12">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="39"/>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="49"/>
-      <c r="L8" s="5" t="s">
+      <c r="K8" s="46"/>
+      <c r="L8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" ht="39.95" customHeight="1" spans="1:15">
-      <c r="A9" s="37"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5">
+    <row r="9" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="4">
         <v>2</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="16">
-        <v>0.00694444444444444</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="12">
+        <v>6.9444444444444397E-3</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H9" s="40"/>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="5" t="s">
+      <c r="J9" s="44"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="30" t="s">
+      <c r="N9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" ht="39.95" customHeight="1" spans="1:15">
-      <c r="A10" s="37"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5">
+      <c r="O9" s="48"/>
+    </row>
+    <row r="10" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="4">
         <v>3</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="16">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="12">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="40"/>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="5" t="s">
+      <c r="J10" s="44"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="30" t="s">
+      <c r="N10" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="O10" s="9"/>
-    </row>
-    <row r="11" ht="39.95" customHeight="1" spans="1:15">
-      <c r="A11" s="37"/>
-      <c r="B11" s="5" t="s">
+      <c r="O10" s="48"/>
+    </row>
+    <row r="11" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>4</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="16">
-        <v>0.00694444444444444</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="12">
+        <v>6.9444444444444397E-3</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H11" s="40"/>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="49"/>
-      <c r="L11" s="5" t="s">
+      <c r="K11" s="46"/>
+      <c r="L11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="30" t="s">
+      <c r="N11" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" ht="39.95" customHeight="1" spans="1:15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="12">
         <v>0.4375</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="40"/>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="49"/>
-      <c r="L12" s="5" t="s">
+      <c r="K12" s="46"/>
+      <c r="L12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="30" t="s">
+      <c r="N12" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" ht="39.95" customHeight="1" spans="1:15">
-      <c r="A13" s="37"/>
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>6</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="25"/>
+      <c r="G13" s="4" t="s">
         <v>70</v>
       </c>
       <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="15" t="s">
+      <c r="I13" s="25"/>
+      <c r="J13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="30" t="s">
+      <c r="K13" s="46"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" ht="39.95" customHeight="1" spans="1:15">
-      <c r="A14" s="42" t="s">
+    <row r="14" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="O14" s="9"/>
-    </row>
-    <row r="15" ht="39.95" customHeight="1" spans="1:15">
-      <c r="A15" s="43"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="5">
+      <c r="E14" s="4"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="4">
         <v>2</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="O15" s="9"/>
-    </row>
-    <row r="16" ht="39.95" customHeight="1" spans="1:15">
-      <c r="A16" s="43"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="5">
+      <c r="E15" s="4"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="4">
         <v>3</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="O16" s="9"/>
-    </row>
-    <row r="17" ht="39.95" customHeight="1" spans="1:15">
-      <c r="A17" s="43"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="5">
+      <c r="E16" s="4"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="4">
         <v>4</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="12">
         <v>0.5</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="5" t="s">
+      <c r="H17" s="4"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <v>300</v>
       </c>
       <c r="N17" t="s">
         <v>77</v>
       </c>
-      <c r="O17" s="55"/>
-    </row>
-    <row r="18" ht="39.95" customHeight="1" spans="1:15">
-      <c r="A18" s="44"/>
-      <c r="B18" s="5" t="s">
+      <c r="O17" s="49"/>
+    </row>
+    <row r="18" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>5</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="16">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="F18" s="12">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="5" t="s">
+      <c r="H18" s="4"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <v>300</v>
       </c>
-      <c r="N18" s="30" t="s">
+      <c r="N18" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="O18" s="55"/>
+      <c r="O18" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3056,826 +2472,824 @@
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="I17:J18"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:L1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.12727272727273" customWidth="1"/>
-    <col min="2" max="2" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="22.6272727272727" customWidth="1"/>
-    <col min="4" max="4" width="7.45454545454545" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="9" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="9" customWidth="1"/>
-    <col min="7" max="7" width="20.3727272727273" style="9" customWidth="1"/>
-    <col min="8" max="8" width="8.12727272727273" style="9" customWidth="1"/>
-    <col min="9" max="9" width="7.37272727272727" customWidth="1"/>
+    <col min="1" max="1" width="8.08984375" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="20.36328125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="8.08984375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="7.36328125" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="19.2545454545455" customWidth="1"/>
-    <col min="12" max="12" width="18.8727272727273" style="9" customWidth="1"/>
+    <col min="11" max="11" width="19.26953125" customWidth="1"/>
+    <col min="12" max="12" width="18.90625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.1" customHeight="1" spans="1:12">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="28"/>
-    </row>
-    <row r="2" s="8" customFormat="1" ht="48.95" customHeight="1" spans="1:12">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="56"/>
+    </row>
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="16">
-        <v>0.365972222222222</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="60">
+        <v>0.36597222222222198</v>
+      </c>
+      <c r="I3" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="29" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="62" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="17"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5">
+      <c r="G4" s="44"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="58"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="15" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5">
+      <c r="G5" s="44"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="58"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="58"/>
+      <c r="F6" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5">
+      <c r="G6" s="44"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="58"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="15" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5">
+      <c r="G7" s="44"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="58"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="15" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5">
+      <c r="G8" s="44"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="58"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="15" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5">
+      <c r="G9" s="44"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="58"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="15" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="20"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="5" t="s">
+      <c r="G10" s="44"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="59"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="15" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="16">
-        <v>0.260416666666667</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="H11" s="60">
+        <v>0.26041666666666702</v>
+      </c>
+      <c r="I11" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="29" t="s">
+      <c r="J11" s="58"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="62" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="4">
         <v>2</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="15" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5">
+      <c r="G12" s="44"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="58"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="4">
         <v>3</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="15" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5">
+      <c r="G13" s="44"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="58"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="4">
         <v>4</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="15" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="20"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="5" t="s">
+      <c r="G14" s="44"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="59"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="15" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="60">
         <v>0.3125</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="29" t="s">
+      <c r="J15" s="58"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="62" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="4">
         <v>2</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="15" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5">
+      <c r="G16" s="44"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="58"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="4">
         <v>3</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="15" t="s">
+      <c r="E17" s="58"/>
+      <c r="F17" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5">
+      <c r="G17" s="44"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="58"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="4">
         <v>4</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="15" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5">
+      <c r="G18" s="44"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="58"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="4">
         <v>5</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="15" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5">
+      <c r="G19" s="44"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="58"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="4">
         <v>6</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="15" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5">
+      <c r="G20" s="44"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="58"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="4">
         <v>7</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="15" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="20"/>
-    </row>
-    <row r="22" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A22" s="5" t="s">
+      <c r="G21" s="44"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="59"/>
+    </row>
+    <row r="22" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>1</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="H22" s="16">
-        <v>0.388888888888889</v>
-      </c>
-      <c r="I22" s="5" t="s">
+      <c r="H22" s="60">
+        <v>0.38888888888888901</v>
+      </c>
+      <c r="I22" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="29" t="s">
+      <c r="K22" s="4"/>
+      <c r="L22" s="62" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="4">
         <v>2</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="15" t="s">
+      <c r="D23" s="15"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="17"/>
-    </row>
-    <row r="24" ht="28" spans="1:12">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5">
+      <c r="G23" s="44"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="58"/>
+    </row>
+    <row r="24" spans="1:12" ht="28" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="4">
         <v>3</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="15" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="17"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5">
+      <c r="G24" s="44"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="58"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="35"/>
+      <c r="B25" s="4">
         <v>4</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="15" t="s">
+      <c r="D25" s="13"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="17"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5">
+      <c r="G25" s="44"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="58"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="4">
         <v>5</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="15" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="20"/>
-    </row>
-    <row r="27" ht="15.95" customHeight="1" spans="1:12">
-      <c r="A27" s="22" t="s">
+      <c r="G26" s="44"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="59"/>
+    </row>
+    <row r="27" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>1</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="15" t="s">
+      <c r="E27" s="58"/>
+      <c r="F27" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="61">
         <v>0.180555555555556</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="29" t="s">
+      <c r="J27" s="58"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="62" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="28" ht="18" customHeight="1" spans="1:12">
-      <c r="A28" s="24"/>
-      <c r="B28" s="5">
+    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="4">
         <v>2</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="15" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="17"/>
-    </row>
-    <row r="29" ht="17.1" customHeight="1" spans="1:12">
-      <c r="A29" s="24"/>
-      <c r="B29" s="5">
+      <c r="G28" s="58"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="58"/>
+    </row>
+    <row r="29" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="4">
         <v>3</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="15" t="s">
+      <c r="D29" s="15"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="17"/>
-    </row>
-    <row r="30" ht="28" spans="1:12">
-      <c r="A30" s="24"/>
-      <c r="B30" s="5">
+      <c r="G29" s="58"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="58"/>
+    </row>
+    <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="4">
         <v>4</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="15" t="s">
+      <c r="D30" s="13"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="17"/>
-    </row>
-    <row r="31" ht="36.95" customHeight="1" spans="1:12">
-      <c r="A31" s="24"/>
-      <c r="B31" s="5">
+      <c r="G30" s="58"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="58"/>
+    </row>
+    <row r="31" spans="1:12" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="4">
         <v>5</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="15" t="s">
+      <c r="D31" s="13"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="17"/>
-    </row>
-    <row r="32" ht="35.1" customHeight="1" spans="1:12">
-      <c r="A32" s="24"/>
-      <c r="B32" s="5">
+      <c r="G31" s="58"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="58"/>
+    </row>
+    <row r="32" spans="1:12" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="37"/>
+      <c r="B32" s="4">
         <v>6</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="15" t="s">
+      <c r="E32" s="58"/>
+      <c r="F32" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="17"/>
-    </row>
-    <row r="33" ht="33" customHeight="1" spans="1:12">
-      <c r="A33" s="24"/>
-      <c r="B33" s="5">
+      <c r="G32" s="58"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="58"/>
+    </row>
+    <row r="33" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="37"/>
+      <c r="B33" s="4">
         <v>7</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="15" t="s">
+      <c r="D33" s="13"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="17"/>
-    </row>
-    <row r="34" ht="33" customHeight="1" spans="1:12">
-      <c r="A34" s="25"/>
-      <c r="B34" s="5">
+      <c r="G33" s="58"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="58"/>
+    </row>
+    <row r="34" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="4">
         <v>8</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="15" t="s">
+      <c r="D34" s="13"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="20"/>
-    </row>
-    <row r="35" ht="13.5" customHeight="1" spans="1:12">
-      <c r="A35" s="5" t="s">
+      <c r="G34" s="59"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="59"/>
+    </row>
+    <row r="35" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>1</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="14" t="s">
+      <c r="D35" s="13"/>
+      <c r="E35" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="H35" s="16">
-        <v>0.222222222222222</v>
-      </c>
-      <c r="I35" s="5" t="s">
+      <c r="H35" s="60">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="I35" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="J35" s="14" t="str">
+      <c r="J35" s="57" t="str">
         <f>J3</f>
         <v>PUT front_film
 PUT front_film/film/_mapping 
@@ -3897,189 +3311,183 @@
         }
 }</v>
       </c>
-      <c r="K35" s="5"/>
-      <c r="L35" s="29" t="s">
+      <c r="K35" s="4"/>
+      <c r="L35" s="62" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="35"/>
+      <c r="B36" s="4">
         <v>2</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="15" t="s">
+      <c r="E36" s="58"/>
+      <c r="F36" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="17"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5">
+      <c r="G36" s="44"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="58"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="35"/>
+      <c r="B37" s="4">
         <v>3</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="15" t="s">
+      <c r="D37" s="13"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="17"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5">
+      <c r="G37" s="44"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="58"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="35"/>
+      <c r="B38" s="4">
         <v>4</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="15" t="s">
+      <c r="D38" s="13"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="17"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5">
+      <c r="G38" s="44"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="58"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="35"/>
+      <c r="B39" s="4">
         <v>5</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="15" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="17"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5">
+      <c r="G39" s="44"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="58"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="35"/>
+      <c r="B40" s="4">
         <v>6</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="15" t="s">
+      <c r="D40" s="13"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="17"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5">
+      <c r="G40" s="44"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="58"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="35"/>
+      <c r="B41" s="4">
         <v>7</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="15" t="s">
+      <c r="E41" s="58"/>
+      <c r="F41" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="17"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5">
+      <c r="G41" s="44"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="58"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="35"/>
+      <c r="B42" s="4">
         <v>8</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="15" t="s">
+      <c r="D42" s="13"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G42" s="15"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="20"/>
-    </row>
-    <row r="43" spans="10:10">
-      <c r="J43" s="9"/>
-    </row>
-    <row r="44" spans="10:10">
-      <c r="J44" s="9"/>
-    </row>
-    <row r="45" spans="10:10">
-      <c r="J45" s="9"/>
-    </row>
-    <row r="46" spans="10:10">
-      <c r="J46" s="9"/>
-    </row>
-    <row r="47" spans="10:10">
-      <c r="J47" s="9"/>
-    </row>
-    <row r="48" spans="10:10">
-      <c r="J48" s="9"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="59"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J48" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="E3:E21"/>
-    <mergeCell ref="E22:E34"/>
-    <mergeCell ref="E35:E42"/>
-    <mergeCell ref="G3:G10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="G15:G21"/>
-    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="L22:L26"/>
+    <mergeCell ref="L27:L34"/>
+    <mergeCell ref="L35:L42"/>
+    <mergeCell ref="I27:I34"/>
+    <mergeCell ref="I35:I42"/>
+    <mergeCell ref="J3:J21"/>
+    <mergeCell ref="J22:J34"/>
+    <mergeCell ref="J35:J42"/>
     <mergeCell ref="G27:G34"/>
     <mergeCell ref="G35:G42"/>
     <mergeCell ref="H3:H10"/>
@@ -4088,53 +3496,58 @@
     <mergeCell ref="H22:H26"/>
     <mergeCell ref="H27:H34"/>
     <mergeCell ref="H35:H42"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="E3:E21"/>
+    <mergeCell ref="E22:E34"/>
+    <mergeCell ref="E35:E42"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="G3:G10"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="G15:G21"/>
+    <mergeCell ref="G22:G26"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="I11:I14"/>
     <mergeCell ref="I15:I21"/>
     <mergeCell ref="I22:I26"/>
-    <mergeCell ref="I27:I34"/>
-    <mergeCell ref="I35:I42"/>
-    <mergeCell ref="J3:J21"/>
-    <mergeCell ref="J22:J34"/>
-    <mergeCell ref="J35:J42"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="L11:L14"/>
     <mergeCell ref="L15:L21"/>
-    <mergeCell ref="L22:L26"/>
-    <mergeCell ref="L27:L34"/>
-    <mergeCell ref="L35:L42"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L35" r:id="rId1" display="http://localhost:8080/system/film"/>
-    <hyperlink ref="L3" r:id="rId1" display="http://localhost:8080/system/film"/>
-    <hyperlink ref="L11" r:id="rId2" display="http://localhost:8080/system/variety"/>
-    <hyperlink ref="L15" r:id="rId3" display="http://localhost:8080/system/tvSeries"/>
-    <hyperlink ref="L22" r:id="rId4" display="http://localhost:8080/system/book"/>
-    <hyperlink ref="L27" r:id="rId5" display="http://localhost:8080/system/netLiterature"/>
+    <hyperlink ref="L35" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L11" r:id="rId3"/>
+    <hyperlink ref="L15" r:id="rId4"/>
+    <hyperlink ref="L22" r:id="rId5"/>
+    <hyperlink ref="L27" r:id="rId6"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="23.3727272727273" customWidth="1"/>
-    <col min="3" max="3" width="72.6272727272727" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1"/>
+    <col min="3" max="3" width="72.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.75" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>185</v>
       </c>
@@ -4145,142 +3558,142 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1" spans="1:3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1" spans="1:3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1" spans="1:3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1" spans="1:3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1" spans="1:3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1" spans="1:3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1" spans="1:3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1" spans="1:3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1" spans="1:3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" ht="16.5" customHeight="1" spans="1:3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="13" ht="16.5" customHeight="1" spans="1:3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="7"/>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://web.ngrok.hxqh.com:8999/MarketServer/system/filming"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://web.ngrok.hxqh.com:8999/MarketServer/system/netLiterature"/>
-    <hyperlink ref="C6" r:id="rId3" display="http://web.ngrok.hxqh.com:8999/MarketServer/system/film"/>
-    <hyperlink ref="C4" r:id="rId4" display="http://web.ngrok.hxqh.com:8999/MarketServer/system/variety"/>
-    <hyperlink ref="C5" r:id="rId5" display="http://web.ngrok.hxqh.com:8999/MarketServer/system/book"/>
-    <hyperlink ref="C7" r:id="rId6" display="http://web.ngrok.hxqh.com:8999/MarketServer/system/tvSeries"/>
-    <hyperlink ref="C8" r:id="rId7" display="http://web.ngrok.hxqh.com:8999/MarketServer/show/filming"/>
-    <hyperlink ref="C9" r:id="rId8" display="http://web.ngrok.hxqh.com:8999/MarketServer/show/netLiterature"/>
-    <hyperlink ref="C10" r:id="rId9" display="http://web.ngrok.hxqh.com:8999/MarketServer/show/variety"/>
-    <hyperlink ref="C11" r:id="rId10" display="http://web.ngrok.hxqh.com:8999/MarketServer/show/book"/>
-    <hyperlink ref="C12" r:id="rId11" display="http://web.ngrok.hxqh.com:8999/MarketServer/show/film"/>
-    <hyperlink ref="C13" r:id="rId12" display="http://web.ngrok.hxqh.com:8999/MarketServer/show/tvSeries"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/爬虫&Spark作业执行.xlsx
+++ b/src/main/resources/爬虫&Spark作业执行.xlsx
@@ -14,14 +14,15 @@
   <sheets>
     <sheet name="爬虫执行汇总" sheetId="2" r:id="rId1"/>
     <sheet name="Spark作业计划" sheetId="1" r:id="rId2"/>
-    <sheet name="系统对接" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="系统对接" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="212">
   <si>
     <t>爬虫执行汇总表</t>
   </si>
@@ -978,12 +979,100 @@
   <si>
     <t>http://web.ngrok.hxqh.com:8999/MarketServer/show/tvSeries</t>
   </si>
+  <si>
+    <r>
+      <t>put(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>电影-</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视剧-</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>综艺-</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书-</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络文学-</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>上映电影-</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>spark3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,6 +1153,38 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF6A8759"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFCC7832"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1308,7 +1429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1390,6 +1511,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1474,23 +1613,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1803,8 +1942,8 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1827,23 +1966,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -1893,10 +2032,10 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="4">
@@ -1917,11 +2056,11 @@
       <c r="H3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="41"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="51" t="s">
         <v>23</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1938,8 +2077,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="4">
         <v>2</v>
       </c>
@@ -1947,7 +2086,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="F4" s="24">
         <v>0.42708333333333298</v>
@@ -1958,11 +2097,11 @@
       <c r="H4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42" t="s">
+      <c r="I4" s="47"/>
+      <c r="J4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="4" t="s">
         <v>31</v>
       </c>
@@ -1972,13 +2111,13 @@
       <c r="N4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="48" t="s">
+      <c r="O4" s="54" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="4">
         <v>3</v>
       </c>
@@ -1997,9 +2136,9 @@
       <c r="H5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="46"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="52"/>
       <c r="L5" s="4" t="s">
         <v>31</v>
       </c>
@@ -2009,10 +2148,10 @@
       <c r="N5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="48"/>
+      <c r="O5" s="54"/>
     </row>
     <row r="6" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
@@ -2034,11 +2173,11 @@
       <c r="H6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="41"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="46"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="4" t="s">
         <v>31</v>
       </c>
@@ -2053,7 +2192,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="44.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
@@ -2075,11 +2214,11 @@
       <c r="H7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="41"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="46"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="4" t="s">
         <v>31</v>
       </c>
@@ -2094,10 +2233,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="4">
@@ -2115,14 +2254,14 @@
       <c r="G8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="39"/>
+      <c r="H8" s="45"/>
       <c r="I8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="46"/>
+      <c r="K8" s="52"/>
       <c r="L8" s="4" t="s">
         <v>31</v>
       </c>
@@ -2132,13 +2271,13 @@
       <c r="N8" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="48" t="s">
+      <c r="O8" s="54" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="4">
         <v>2</v>
       </c>
@@ -2154,12 +2293,12 @@
       <c r="G9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="40"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="46"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="4" t="s">
         <v>31</v>
       </c>
@@ -2169,11 +2308,11 @@
       <c r="N9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="48"/>
+      <c r="O9" s="54"/>
     </row>
     <row r="10" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="4">
         <v>3</v>
       </c>
@@ -2189,12 +2328,12 @@
       <c r="G10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="40"/>
+      <c r="H10" s="46"/>
       <c r="I10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="46"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="52"/>
       <c r="L10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2204,10 +2343,10 @@
       <c r="N10" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="O10" s="48"/>
+      <c r="O10" s="54"/>
     </row>
     <row r="11" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
@@ -2226,14 +2365,14 @@
       <c r="G11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="40"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="11" t="s">
         <v>54</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="46"/>
+      <c r="K11" s="52"/>
       <c r="L11" s="4" t="s">
         <v>31</v>
       </c>
@@ -2248,7 +2387,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="4" t="s">
         <v>46</v>
       </c>
@@ -2267,14 +2406,14 @@
       <c r="G12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="40"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="11" t="s">
         <v>54</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="46"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="4" t="s">
         <v>31</v>
       </c>
@@ -2289,7 +2428,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="4" t="s">
         <v>68</v>
       </c>
@@ -2306,12 +2445,12 @@
       <c r="G13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="40"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="25"/>
       <c r="J13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="46"/>
+      <c r="K13" s="52"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="19" t="s">
@@ -2322,10 +2461,10 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="42" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="4">
@@ -2340,14 +2479,14 @@
       <c r="H14" s="16"/>
       <c r="I14" s="27"/>
       <c r="J14" s="28"/>
-      <c r="K14" s="46"/>
+      <c r="K14" s="52"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="O14" s="8"/>
     </row>
     <row r="15" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="4">
         <v>2</v>
       </c>
@@ -2360,14 +2499,14 @@
       <c r="H15" s="16"/>
       <c r="I15" s="27"/>
       <c r="J15" s="28"/>
-      <c r="K15" s="46"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="O15" s="8"/>
     </row>
     <row r="16" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="4">
         <v>3</v>
       </c>
@@ -2380,14 +2519,14 @@
       <c r="H16" s="16"/>
       <c r="I16" s="27"/>
       <c r="J16" s="28"/>
-      <c r="K16" s="46"/>
+      <c r="K16" s="52"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="O16" s="8"/>
     </row>
     <row r="17" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="4">
         <v>4</v>
       </c>
@@ -2404,9 +2543,9 @@
         <v>53</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="46"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="52"/>
       <c r="L17" s="4" t="s">
         <v>31</v>
       </c>
@@ -2416,10 +2555,10 @@
       <c r="N17" t="s">
         <v>77</v>
       </c>
-      <c r="O17" s="49"/>
+      <c r="O17" s="55"/>
     </row>
     <row r="18" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="4" t="s">
         <v>78</v>
       </c>
@@ -2439,9 +2578,9 @@
         <v>53</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="47"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="53"/>
       <c r="L18" s="4" t="s">
         <v>31</v>
       </c>
@@ -2451,7 +2590,7 @@
       <c r="N18" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="O18" s="49"/>
+      <c r="O18" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2483,8 +2622,8 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L1"/>
+      <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2504,20 +2643,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="56"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" s="7" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -2558,7 +2697,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="41" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="4">
@@ -2568,31 +2707,31 @@
         <v>93</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="66" t="s">
         <v>94</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="60">
+      <c r="H3" s="67">
         <v>0.36597222222222198</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="66" t="s">
         <v>98</v>
       </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="63" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -2600,19 +2739,19 @@
         <v>100</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="58"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="58"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="64"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="58"/>
+      <c r="L4" s="64"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -2620,19 +2759,19 @@
         <v>102</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="58"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="58"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="58"/>
+      <c r="L5" s="64"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -2642,19 +2781,19 @@
       <c r="D6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="58"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="58"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="64"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="58"/>
+      <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -2662,19 +2801,19 @@
         <v>107</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="58"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="58"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="64"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="58"/>
+      <c r="L7" s="64"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -2682,19 +2821,19 @@
         <v>109</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="58"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="58"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="64"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="58"/>
+      <c r="L8" s="64"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -2702,19 +2841,19 @@
         <v>111</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="58"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="58"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="64"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="58"/>
+      <c r="L9" s="64"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -2722,19 +2861,19 @@
         <v>113</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="58"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="58"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="64"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="59"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="41" t="s">
         <v>115</v>
       </c>
       <c r="B11" s="4">
@@ -2744,27 +2883,27 @@
         <v>93</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="58"/>
+      <c r="E11" s="64"/>
       <c r="F11" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="67">
         <v>0.26041666666666702</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="J11" s="58"/>
+      <c r="J11" s="64"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="62" t="s">
+      <c r="L11" s="63" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="4">
         <v>2</v>
       </c>
@@ -2772,19 +2911,19 @@
         <v>100</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="58"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="58"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="64"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="58"/>
+      <c r="L12" s="64"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="4">
         <v>3</v>
       </c>
@@ -2792,19 +2931,19 @@
         <v>121</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="58"/>
+      <c r="E13" s="64"/>
       <c r="F13" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="58"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="64"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="58"/>
+      <c r="L13" s="64"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="4">
         <v>4</v>
       </c>
@@ -2812,19 +2951,19 @@
         <v>123</v>
       </c>
       <c r="D14" s="14"/>
-      <c r="E14" s="58"/>
+      <c r="E14" s="64"/>
       <c r="F14" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="58"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="64"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="59"/>
+      <c r="L14" s="65"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="41" t="s">
         <v>125</v>
       </c>
       <c r="B15" s="4">
@@ -2834,27 +2973,27 @@
         <v>93</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="58"/>
+      <c r="E15" s="64"/>
       <c r="F15" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="60">
+      <c r="H15" s="67">
         <v>0.3125</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="J15" s="58"/>
+      <c r="J15" s="64"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="62" t="s">
+      <c r="L15" s="63" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="4">
         <v>2</v>
       </c>
@@ -2862,19 +3001,19 @@
         <v>100</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="58"/>
+      <c r="E16" s="64"/>
       <c r="F16" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="58"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="64"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="58"/>
+      <c r="L16" s="64"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="4">
         <v>3</v>
       </c>
@@ -2884,19 +3023,19 @@
       <c r="D17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="58"/>
+      <c r="E17" s="64"/>
       <c r="F17" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="58"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="64"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="58"/>
+      <c r="L17" s="64"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="4">
         <v>4</v>
       </c>
@@ -2904,19 +3043,19 @@
         <v>107</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="58"/>
+      <c r="E18" s="64"/>
       <c r="F18" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="58"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="64"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="58"/>
+      <c r="L18" s="64"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="4">
         <v>5</v>
       </c>
@@ -2924,19 +3063,19 @@
         <v>133</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="58"/>
+      <c r="E19" s="64"/>
       <c r="F19" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="58"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="64"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="58"/>
+      <c r="L19" s="64"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="4">
         <v>6</v>
       </c>
@@ -2944,19 +3083,19 @@
         <v>111</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="58"/>
+      <c r="E20" s="64"/>
       <c r="F20" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="58"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="64"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="58"/>
+      <c r="L20" s="64"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="4">
         <v>7</v>
       </c>
@@ -2964,19 +3103,19 @@
         <v>136</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="59"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="59"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="65"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="59"/>
+      <c r="L21" s="65"/>
     </row>
     <row r="22" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="41" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="4">
@@ -2986,31 +3125,31 @@
         <v>138</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="66" t="s">
         <v>139</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="H22" s="60">
+      <c r="H22" s="67">
         <v>0.38888888888888901</v>
       </c>
-      <c r="I22" s="35" t="s">
+      <c r="I22" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="J22" s="57" t="s">
+      <c r="J22" s="66" t="s">
         <v>142</v>
       </c>
       <c r="K22" s="4"/>
-      <c r="L22" s="62" t="s">
+      <c r="L22" s="63" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="4">
         <v>2</v>
       </c>
@@ -3018,19 +3157,19 @@
         <v>144</v>
       </c>
       <c r="D23" s="15"/>
-      <c r="E23" s="58"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="58"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="64"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="58"/>
+      <c r="L23" s="64"/>
     </row>
     <row r="24" spans="1:12" ht="28" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="4">
         <v>3</v>
       </c>
@@ -3038,19 +3177,19 @@
         <v>146</v>
       </c>
       <c r="D24" s="15"/>
-      <c r="E24" s="58"/>
+      <c r="E24" s="64"/>
       <c r="F24" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G24" s="44"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="58"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="64"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="58"/>
+      <c r="L24" s="64"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="4">
         <v>4</v>
       </c>
@@ -3058,19 +3197,19 @@
         <v>148</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25" s="58"/>
+      <c r="E25" s="64"/>
       <c r="F25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="58"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="64"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="58"/>
+      <c r="L25" s="64"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="4">
         <v>5</v>
       </c>
@@ -3078,19 +3217,19 @@
         <v>149</v>
       </c>
       <c r="D26" s="13"/>
-      <c r="E26" s="58"/>
+      <c r="E26" s="64"/>
       <c r="F26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="44"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="58"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="64"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="59"/>
+      <c r="L26" s="65"/>
     </row>
     <row r="27" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="42" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="4">
@@ -3102,27 +3241,27 @@
       <c r="D27" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="58"/>
+      <c r="E27" s="64"/>
       <c r="F27" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G27" s="57" t="s">
+      <c r="G27" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="H27" s="61">
+      <c r="H27" s="68">
         <v>0.180555555555556</v>
       </c>
-      <c r="I27" s="36" t="s">
+      <c r="I27" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="J27" s="58"/>
+      <c r="J27" s="64"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="62" t="s">
+      <c r="L27" s="63" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="4">
         <v>2</v>
       </c>
@@ -3130,19 +3269,19 @@
         <v>154</v>
       </c>
       <c r="D28" s="15"/>
-      <c r="E28" s="58"/>
+      <c r="E28" s="64"/>
       <c r="F28" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G28" s="58"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="58"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="64"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="58"/>
+      <c r="L28" s="64"/>
     </row>
     <row r="29" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="4">
         <v>3</v>
       </c>
@@ -3150,19 +3289,19 @@
         <v>156</v>
       </c>
       <c r="D29" s="15"/>
-      <c r="E29" s="58"/>
+      <c r="E29" s="64"/>
       <c r="F29" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="58"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="64"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="58"/>
+      <c r="L29" s="64"/>
     </row>
     <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="4">
         <v>4</v>
       </c>
@@ -3170,19 +3309,19 @@
         <v>158</v>
       </c>
       <c r="D30" s="13"/>
-      <c r="E30" s="58"/>
+      <c r="E30" s="64"/>
       <c r="F30" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G30" s="58"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="58"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="64"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="58"/>
+      <c r="L30" s="64"/>
     </row>
     <row r="31" spans="1:12" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="4">
         <v>5</v>
       </c>
@@ -3190,19 +3329,19 @@
         <v>160</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="58"/>
+      <c r="E31" s="64"/>
       <c r="F31" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G31" s="58"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="58"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="64"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="58"/>
+      <c r="L31" s="64"/>
     </row>
     <row r="32" spans="1:12" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="4">
         <v>6</v>
       </c>
@@ -3212,19 +3351,19 @@
       <c r="D32" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="58"/>
+      <c r="E32" s="64"/>
       <c r="F32" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="G32" s="58"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="58"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="64"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="58"/>
+      <c r="L32" s="64"/>
     </row>
     <row r="33" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="4">
         <v>7</v>
       </c>
@@ -3232,19 +3371,19 @@
         <v>164</v>
       </c>
       <c r="D33" s="13"/>
-      <c r="E33" s="58"/>
+      <c r="E33" s="64"/>
       <c r="F33" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="G33" s="58"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="58"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="64"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="58"/>
+      <c r="L33" s="64"/>
     </row>
     <row r="34" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="4">
         <v>8</v>
       </c>
@@ -3252,19 +3391,19 @@
         <v>166</v>
       </c>
       <c r="D34" s="13"/>
-      <c r="E34" s="59"/>
+      <c r="E34" s="65"/>
       <c r="F34" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="G34" s="59"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="58"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="64"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="59"/>
+      <c r="L34" s="65"/>
     </row>
     <row r="35" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="4">
@@ -3274,22 +3413,22 @@
         <v>168</v>
       </c>
       <c r="D35" s="13"/>
-      <c r="E35" s="57" t="s">
+      <c r="E35" s="66" t="s">
         <v>94</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="44" t="s">
+      <c r="G35" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="H35" s="60">
+      <c r="H35" s="67">
         <v>0.22222222222222199</v>
       </c>
-      <c r="I35" s="35" t="s">
+      <c r="I35" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="J35" s="57" t="str">
+      <c r="J35" s="66" t="str">
         <f>J3</f>
         <v>PUT front_film
 PUT front_film/film/_mapping 
@@ -3312,12 +3451,12 @@
 }</v>
       </c>
       <c r="K35" s="4"/>
-      <c r="L35" s="62" t="s">
+      <c r="L35" s="63" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="4">
         <v>2</v>
       </c>
@@ -3327,19 +3466,19 @@
       <c r="D36" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="58"/>
+      <c r="E36" s="64"/>
       <c r="F36" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="G36" s="44"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="58"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="64"/>
       <c r="K36" s="19"/>
-      <c r="L36" s="58"/>
+      <c r="L36" s="64"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="4">
         <v>3</v>
       </c>
@@ -3347,19 +3486,19 @@
         <v>173</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="58"/>
+      <c r="E37" s="64"/>
       <c r="F37" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G37" s="44"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="58"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="64"/>
       <c r="K37" s="19"/>
-      <c r="L37" s="58"/>
+      <c r="L37" s="64"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="4">
         <v>4</v>
       </c>
@@ -3367,19 +3506,19 @@
         <v>175</v>
       </c>
       <c r="D38" s="13"/>
-      <c r="E38" s="58"/>
+      <c r="E38" s="64"/>
       <c r="F38" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="G38" s="44"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="58"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="64"/>
       <c r="K38" s="19"/>
-      <c r="L38" s="58"/>
+      <c r="L38" s="64"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="4">
         <v>5</v>
       </c>
@@ -3387,19 +3526,19 @@
         <v>177</v>
       </c>
       <c r="D39" s="13"/>
-      <c r="E39" s="58"/>
+      <c r="E39" s="64"/>
       <c r="F39" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="G39" s="44"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="58"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="64"/>
       <c r="K39" s="19"/>
-      <c r="L39" s="58"/>
+      <c r="L39" s="64"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="4">
         <v>6</v>
       </c>
@@ -3407,19 +3546,19 @@
         <v>179</v>
       </c>
       <c r="D40" s="13"/>
-      <c r="E40" s="58"/>
+      <c r="E40" s="64"/>
       <c r="F40" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="G40" s="44"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="58"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="64"/>
       <c r="K40" s="19"/>
-      <c r="L40" s="58"/>
+      <c r="L40" s="64"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="4">
         <v>7</v>
       </c>
@@ -3429,19 +3568,19 @@
       <c r="D41" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E41" s="58"/>
+      <c r="E41" s="64"/>
       <c r="F41" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="G41" s="44"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="58"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="64"/>
       <c r="K41" s="19"/>
-      <c r="L41" s="58"/>
+      <c r="L41" s="64"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="4">
         <v>8</v>
       </c>
@@ -3449,16 +3588,16 @@
         <v>183</v>
       </c>
       <c r="D42" s="13"/>
-      <c r="E42" s="59"/>
+      <c r="E42" s="65"/>
       <c r="F42" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="59"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="65"/>
       <c r="K42" s="19"/>
-      <c r="L42" s="59"/>
+      <c r="L42" s="65"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J43" s="8"/>
@@ -3534,6 +3673,796 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="8" max="8" width="28.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="33"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="33"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="33"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3559,7 +4488,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="69" t="s">
         <v>188</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3570,7 +4499,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
@@ -3579,7 +4508,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="2" t="s">
         <v>115</v>
       </c>
@@ -3588,7 +4517,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
@@ -3597,7 +4526,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="2" t="s">
         <v>92</v>
       </c>
@@ -3606,7 +4535,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="2" t="s">
         <v>125</v>
       </c>
@@ -3615,7 +4544,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="69" t="s">
         <v>195</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3626,7 +4555,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
@@ -3635,7 +4564,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="2" t="s">
         <v>115</v>
       </c>
@@ -3644,7 +4573,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
@@ -3653,7 +4582,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="2" t="s">
         <v>92</v>
       </c>
@@ -3662,7 +4591,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="2" t="s">
         <v>125</v>
       </c>
